--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_21_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_21_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.049109350067373, 2.50780944533194]</t>
+          <t>[2.045199002424315, 2.511719792974998]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.16759788805314413, 0.4379608132001196]</t>
+          <t>[0.1675522130283016, 0.43800648822496213]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>4.590552882355325e-05</v>
+        <v>4.613282882170999e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>4.590552882355325e-05</v>
+        <v>4.613282882170999e-05</v>
       </c>
       <c r="W2" t="n">
         <v>24.27125125125204</v>
